--- a/data/minfin/26_questions.xlsx
+++ b/data/minfin/26_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -160,9 +160,6 @@
     <t>Игры, являются, азартными, какие, азартная игра</t>
   </si>
   <si>
-    <t>Азартная игра – это основанное на риске соглашение о выигрыше, заключенное двумя или несколькими участниками такого соглашения между собой либо с организатором азартной игры по правилам, установленным организатором азартной игры</t>
-  </si>
-  <si>
     <t>Федеральным законом от 29 декабря 2006 года № 244-ФЗ «О государственном регулировании деятельности по организации и проведению азартных игр и о внесении изменений в некоторые законодательные акты Российской Федерации» установлено, что азартная игра - основанное на риске соглашение о выигрыше, заключенное двумя или несколькими участниками такого соглашения между собой либо с организатором азартной игры по правилам, установленным организатором азартной игры</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
     <t>Ограничения на осуществление деятельности по организации и проведению азартных игр на территории Российской Федерации установлены в целях защиты нравственности, прав и законных интересов граждан</t>
   </si>
   <si>
-    <t>Ограничения на осуществление деятельности по организации и проведению азартных игр на территории Российской Федерации установлены в целях защиты нравственности, прав и законных интересов граждан. (Федеральным законом от 29 декабря 2006 года № 244-ФЗ «О государственном регулировании деятельности по организации и проведению азартных игр и о внесении изменений в некоторые законодательные акты Российской Федерации»)</t>
-  </si>
-  <si>
     <t>Принимаются, принимает, решения, создание, ликвидация, игорных зон</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>Производство и реализацию защищенной от подделок полиграфической продукции могут осуществлять юридические лица и индивидуальные предприниматели, получившие лицензию на производство и реализацию защищенной от подделок полиграфической продукции</t>
   </si>
   <si>
-    <t>Производство и реализацию защищенной от подделок полиграфической продукции могут осуществлять юридические лица и индивидуальные предприниматели, получившие лицензию на производство и реализацию защищенной от подделок полиграфической продукции в соответствии с Положением о лицензировании деятельности по производству и реализации защищенной от подделок полиграфической продукции, в порядке установленном постановлением Правительства Российской Федерации от 24 сентября 2012 г. № 965. Реестр лицензий размещен на официальном сайте Федеральной налоговой службы в разделе «Госрегулируемые виды деятельности»</t>
-  </si>
-  <si>
     <t>Раздел «Госрегулируемые виды деятельности» на официальном сайте Федеральной налоговой службы</t>
   </si>
   <si>
@@ -235,23 +226,32 @@
     <t>Лицензирование деятельности по производству и реализации защищенной от подделок полиграфической продукции осуществляется Федеральной налоговой службой</t>
   </si>
   <si>
-    <t>В соответствии с Положением о лицензировании деятельности по производству и реализации защищенной от подделок полиграфической продукции, утвержденным постановлением Правительства Российской Федерации от 24 сентября 2012 г. № 965 лицензирование деятельности по производству и реализации защищенной от подделок полиграфической продукции осуществляется Федеральной налоговой службой</t>
-  </si>
-  <si>
     <t>Полиграфическая продукция, относится к, защищенной от подделок</t>
   </si>
   <si>
     <t>Защищенная от подделок полиграфическая продукция - это полиграфическая продукция, содержащая не менее двух защитных элементов, изготовленная с применением полиграфических, голографических, информационных, микропроцессорных и иных способов защиты полиграфической продукции, предотвращающих подделку этой продукции</t>
   </si>
   <si>
-    <t>В соответствии с Положением о лицензировании деятельности по производству и реализации защищенной от подделок полиграфической продукции, утвержденным постановлением Правительства Российской Федерации от 24 сентября 2012 г. № 965 защищенная от подделок полиграфическая продукция - полиграфическая продукция, содержащая не менее двух защитных элементов, изготовленная с применением полиграфических, голографических, информационных, микропроцессорных и иных способов защиты полиграфической продукции, предотвращающих подделку этой продукции</t>
+    <t>Азартная игра – это основанное на риске соглашение о выигрыше, заключенное двумя или несколькими участниками такого соглашения между собой либо с организатором азартной игр\+ы по правилам, установленным организатором азартной игр\+ы</t>
+  </si>
+  <si>
+    <t>Ограничения на осуществление деятельности по организации и проведению азартных игр на территории Российской Федерации установлены в целях защиты нравственности, прав и законных интересов граждан (Федеральным законом от 29 декабря 2006 года № 244-ФЗ «О государственном регулировании деятельности по организации и проведению азартных игр и о внесении изменений в некоторые законодательные акты Российской Федерации»).</t>
+  </si>
+  <si>
+    <t>Производство и реализацию защищенной от подделок полиграфической продукции могут осуществлять юридические лица и индивидуальные предприниматели, получившие лицензию на производство и реализацию защищенной от подделок полиграфической продукции в соответствии с Положением о лицензировании деятельности по производству и реализации защищенной от подделок полиграфической продукции, в порядке, установленном постановлением Правительства Российской Федерации от 24 сентября 2012 г. № 965. Реестр лицензий размещен на официальном сайте Федеральной налоговой службы в разделе «Госрегулируемые виды деятельности»</t>
+  </si>
+  <si>
+    <t>В соответствии с Положением о лицензировании деятельности по производству и реализации защищенной от подделок полиграфической продукции, утвержденным постановлением Правительства Российской Федерации от 24 сентября 2012 г. № 965, лицензирование деятельности по производству и реализации защищенной от подделок полиграфической продукции осуществляется Федеральной налоговой службой</t>
+  </si>
+  <si>
+    <t>В соответствии с Положением о лицензировании деятельности по производству и реализации защищенной от подделок полиграфической продукции, утвержденным постановлением Правительства Российской Федерации от 24 сентября 2012 г. № 965, защищенная от подделок полиграфическая продукция - полиграфическая продукция, содержащая не менее двух защитных элементов, изготовленная с применением полиграфических, голографических, информационных, микропроцессорных и иных способов защиты полиграфической продукции, предотвращающих подделку этой продукции</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,24 +654,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
@@ -689,7 +689,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -727,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="189">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -745,7 +745,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="409.5">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="315">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -781,7 +781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="173.25">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -789,16 +789,16 @@
         <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="204.75">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -806,16 +806,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="157.5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -823,16 +823,16 @@
         <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="126">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
@@ -840,18 +840,18 @@
         <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="409.5">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
@@ -859,18 +859,18 @@
         <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="236.25">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -878,22 +878,22 @@
         <v>36</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="157.5">
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
@@ -901,91 +901,91 @@
         <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="204.75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
   </sheetData>
